--- a/Code/Results/Cases/Case_2_154/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_154/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.9813185553956</v>
+        <v>15.13816947372388</v>
       </c>
       <c r="C2">
-        <v>11.28167524105538</v>
+        <v>10.57619841282403</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.387907005256884</v>
+        <v>12.48759964142782</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391233</v>
       </c>
       <c r="G2">
-        <v>2.081832443571773</v>
+        <v>3.640653167366422</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.150699559125469</v>
+        <v>9.867383632438891</v>
       </c>
       <c r="M2">
-        <v>11.6046228910494</v>
+        <v>14.84076601712459</v>
       </c>
       <c r="N2">
-        <v>12.35702782927028</v>
+        <v>18.29681617104089</v>
       </c>
       <c r="O2">
-        <v>15.33346704635557</v>
+        <v>23.09019337217143</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.69139417783176</v>
+        <v>14.73060681304302</v>
       </c>
       <c r="C3">
-        <v>10.88566948195155</v>
+        <v>10.43455430430983</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.478616709918569</v>
+        <v>12.52719117488554</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866808</v>
       </c>
       <c r="G3">
-        <v>2.087207011037056</v>
+        <v>3.64270253703804</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.067590441384344</v>
+        <v>9.874631915804647</v>
       </c>
       <c r="M3">
-        <v>11.09706396977019</v>
+        <v>14.76268644959621</v>
       </c>
       <c r="N3">
-        <v>12.52325704268916</v>
+        <v>18.35256908831414</v>
       </c>
       <c r="O3">
-        <v>15.22578301044957</v>
+        <v>23.16283643608086</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.85263571144349</v>
+        <v>14.47698313372717</v>
       </c>
       <c r="C4">
-        <v>10.63475877580759</v>
+        <v>10.34587084369377</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.536962118349003</v>
+        <v>12.55291072002945</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108491</v>
       </c>
       <c r="G4">
-        <v>2.090608980103587</v>
+        <v>3.644027937752507</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.018789406994932</v>
+        <v>9.880418706905916</v>
       </c>
       <c r="M4">
-        <v>10.77764600391891</v>
+        <v>14.71681313574361</v>
       </c>
       <c r="N4">
-        <v>12.62885989756675</v>
+        <v>18.38872071293296</v>
       </c>
       <c r="O4">
-        <v>15.17599788076747</v>
+        <v>23.21329246586749</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.49901046464227</v>
+        <v>14.37293757822897</v>
       </c>
       <c r="C5">
-        <v>10.53065360849675</v>
+        <v>10.30932489346967</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.561400406606489</v>
+        <v>12.56374700129244</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.00819731993403</v>
       </c>
       <c r="G5">
-        <v>2.092021577422435</v>
+        <v>3.644584970366805</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.999472397338574</v>
+        <v>9.883113408712298</v>
       </c>
       <c r="M5">
-        <v>10.64570396226234</v>
+        <v>14.69865361350314</v>
       </c>
       <c r="N5">
-        <v>12.6727841008396</v>
+        <v>18.40393645153275</v>
       </c>
       <c r="O5">
-        <v>15.15967527373644</v>
+        <v>23.23532066324243</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.43957504278088</v>
+        <v>14.35562388472703</v>
       </c>
       <c r="C6">
-        <v>10.51325785740697</v>
+        <v>10.3032326171877</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.565498242873171</v>
+        <v>12.56556784258816</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551593</v>
       </c>
       <c r="G6">
-        <v>2.092257742446801</v>
+        <v>3.644678488769679</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.99629949259602</v>
+        <v>9.883581201534748</v>
       </c>
       <c r="M6">
-        <v>10.62369347346721</v>
+        <v>14.69567090722551</v>
       </c>
       <c r="N6">
-        <v>12.68013148076806</v>
+        <v>18.40649225718603</v>
       </c>
       <c r="O6">
-        <v>15.15720008841505</v>
+        <v>23.23906688431452</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.84791456769995</v>
+        <v>14.47558252551432</v>
       </c>
       <c r="C7">
-        <v>10.63336216260469</v>
+        <v>10.34537958673934</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.537289026001798</v>
+        <v>12.55305542206558</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323137</v>
       </c>
       <c r="G7">
-        <v>2.090627923718656</v>
+        <v>3.644035381505101</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.018526572198211</v>
+        <v>9.880453685343282</v>
       </c>
       <c r="M7">
-        <v>10.77587352729752</v>
+        <v>14.71656604872224</v>
       </c>
       <c r="N7">
-        <v>12.62944866892095</v>
+        <v>18.38892395795228</v>
       </c>
       <c r="O7">
-        <v>15.17576188723852</v>
+        <v>23.21358361273264</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.54620999241892</v>
+        <v>14.99843498003424</v>
       </c>
       <c r="C8">
-        <v>11.14679663289804</v>
+        <v>10.52772943558097</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.418631200531142</v>
+        <v>12.50095857379506</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.53996406344768</v>
       </c>
       <c r="G8">
-        <v>2.083664819464067</v>
+        <v>3.641345899879338</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.121587048145106</v>
+        <v>9.869605812022581</v>
       </c>
       <c r="M8">
-        <v>11.43132977337063</v>
+        <v>14.81342374910923</v>
       </c>
       <c r="N8">
-        <v>12.41360962953508</v>
+        <v>18.31564211620533</v>
       </c>
       <c r="O8">
-        <v>15.29286510591984</v>
+        <v>23.11402311210457</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.5090055810653</v>
+        <v>15.99047237285147</v>
       </c>
       <c r="C9">
-        <v>12.08848026535696</v>
+        <v>10.87069495838726</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.207178390701127</v>
+        <v>12.40995152741264</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.070789198574215</v>
+        <v>3.636601643489184</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.340913711612152</v>
+        <v>9.858912081805055</v>
       </c>
       <c r="M9">
-        <v>12.64836950379887</v>
+        <v>15.01911354457428</v>
       </c>
       <c r="N9">
-        <v>12.01842710104022</v>
+        <v>18.18711481060626</v>
       </c>
       <c r="O9">
-        <v>15.65794148892446</v>
+        <v>22.96543094594642</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.46640659978226</v>
+        <v>16.69106755503867</v>
       </c>
       <c r="C10">
-        <v>12.7366129657329</v>
+        <v>11.11243416168783</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.065115630129543</v>
+        <v>12.34984067645498</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.061759974506782</v>
+        <v>3.633435613230536</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.511916631013824</v>
+        <v>9.8574695212699</v>
       </c>
       <c r="M10">
-        <v>13.63327301675233</v>
+        <v>15.17891990619752</v>
       </c>
       <c r="N10">
-        <v>11.74528907524765</v>
+        <v>18.10187054606856</v>
       </c>
       <c r="O10">
-        <v>16.01595100595157</v>
+        <v>22.88496382297739</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.31030423738663</v>
+        <v>17.00217012951837</v>
       </c>
       <c r="C11">
-        <v>13.02133501582389</v>
+        <v>11.21991933819238</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.003468297262192</v>
+        <v>12.3239506763451</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.057735319154976</v>
+        <v>3.632063971237305</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.591713862065546</v>
+        <v>9.858197148648685</v>
       </c>
       <c r="M11">
-        <v>14.10491566994413</v>
+        <v>15.25329998174002</v>
       </c>
       <c r="N11">
-        <v>11.62481577275499</v>
+        <v>18.06507087012443</v>
       </c>
       <c r="O11">
-        <v>16.19963827690663</v>
+        <v>22.85464159940378</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.62326356121096</v>
+        <v>17.11877395437608</v>
       </c>
       <c r="C12">
-        <v>13.12765630186773</v>
+        <v>11.26024292062588</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.980561907078307</v>
+        <v>12.31435524667529</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.056222264576146</v>
+        <v>3.631554375862884</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.622208182718754</v>
+        <v>9.858670780335855</v>
       </c>
       <c r="M12">
-        <v>14.27996948214203</v>
+        <v>15.28168980073434</v>
       </c>
       <c r="N12">
-        <v>11.57974611268519</v>
+        <v>18.05141924483702</v>
       </c>
       <c r="O12">
-        <v>16.27228440836113</v>
+        <v>22.84406655167632</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.55615460185212</v>
+        <v>17.09371643908727</v>
       </c>
       <c r="C13">
-        <v>13.10482525488145</v>
+        <v>11.25157569415379</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.985475549810973</v>
+        <v>12.31641252878674</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.05654765410487</v>
+        <v>3.631663690566675</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.615628552412465</v>
+        <v>9.858559980146584</v>
       </c>
       <c r="M13">
-        <v>14.24242558035763</v>
+        <v>15.27556589209342</v>
       </c>
       <c r="N13">
-        <v>11.58942802073678</v>
+        <v>18.05434676649131</v>
       </c>
       <c r="O13">
-        <v>16.25650005352048</v>
+        <v>22.84630366586153</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.33618349213133</v>
+        <v>17.01178792477402</v>
       </c>
       <c r="C14">
-        <v>13.03011233874741</v>
+        <v>11.22324449440197</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.00157493245947</v>
+        <v>12.32315707849877</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.057610624321625</v>
+        <v>3.632021850077782</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.594217164811476</v>
+        <v>9.858232149938503</v>
       </c>
       <c r="M14">
-        <v>14.11938829435175</v>
+        <v>15.25563125234554</v>
       </c>
       <c r="N14">
-        <v>11.62109677092639</v>
+        <v>18.06394206358631</v>
       </c>
       <c r="O14">
-        <v>16.20555253529259</v>
+        <v>22.85375337877184</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>24.20058706983609</v>
+        <v>16.96144443437552</v>
       </c>
       <c r="C15">
-        <v>12.98415250076176</v>
+        <v>11.20584086927829</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.011493643040616</v>
+        <v>12.32731545078266</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.058263128087341</v>
+        <v>3.632242509961854</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.581137786838141</v>
+        <v>9.858057114180678</v>
       </c>
       <c r="M15">
-        <v>14.04356374487209</v>
+        <v>15.24344929132929</v>
       </c>
       <c r="N15">
-        <v>11.64056681090597</v>
+        <v>18.06985636940108</v>
       </c>
       <c r="O15">
-        <v>16.17475042479289</v>
+        <v>22.85843481240178</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.41032672676249</v>
+        <v>16.6705735969925</v>
       </c>
       <c r="C16">
-        <v>12.71779834134172</v>
+        <v>11.10535791356974</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.069205165099818</v>
+        <v>12.35156186704146</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.062024584731701</v>
+        <v>3.63352662948554</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.50674106081544</v>
+        <v>9.857449740531976</v>
       </c>
       <c r="M16">
-        <v>13.60195141037187</v>
+        <v>15.17409130462694</v>
       </c>
       <c r="N16">
-        <v>11.75323892401038</v>
+        <v>18.10431522606614</v>
       </c>
       <c r="O16">
-        <v>16.00437385315333</v>
+        <v>22.88707221418882</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.91366871949442</v>
+        <v>16.49010468203814</v>
       </c>
       <c r="C17">
-        <v>12.55177481688666</v>
+        <v>11.04306318213597</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.10537861867066</v>
+        <v>12.36680839255883</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.064352692155173</v>
+        <v>3.634331930560651</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.461606575817578</v>
+        <v>9.857430958413255</v>
       </c>
       <c r="M17">
-        <v>13.32467425453421</v>
+        <v>15.13196061874101</v>
       </c>
       <c r="N17">
-        <v>11.82333213115609</v>
+        <v>18.1259606972748</v>
       </c>
       <c r="O17">
-        <v>15.90525669921705</v>
+        <v>22.90625234020821</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.62361890128563</v>
+        <v>16.38559420196506</v>
       </c>
       <c r="C18">
-        <v>12.4553321642579</v>
+        <v>11.00700040721842</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.126464238041757</v>
+        <v>12.37571475405049</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.065699608009585</v>
+        <v>3.63480157840313</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.43583601196807</v>
+        <v>9.85755046937536</v>
       </c>
       <c r="M18">
-        <v>13.1628408127716</v>
+        <v>15.10788773146187</v>
       </c>
       <c r="N18">
-        <v>11.8640029655189</v>
+        <v>18.13859686389948</v>
       </c>
       <c r="O18">
-        <v>15.85020254912813</v>
+        <v>22.91787538468753</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.52465730100065</v>
+        <v>16.35009043032512</v>
       </c>
       <c r="C19">
-        <v>12.42251654823269</v>
+        <v>10.99475091467367</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.133651208641519</v>
+        <v>12.37875383815204</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.066157025515335</v>
+        <v>3.634961704099728</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.427143475003913</v>
+        <v>9.857613341465708</v>
       </c>
       <c r="M19">
-        <v>13.10764183741613</v>
+        <v>15.09976502553032</v>
       </c>
       <c r="N19">
-        <v>11.87783419914043</v>
+        <v>18.14290727083264</v>
       </c>
       <c r="O19">
-        <v>15.83189502047594</v>
+        <v>22.92191215373101</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.96699206436802</v>
+        <v>16.50939017529545</v>
       </c>
       <c r="C20">
-        <v>12.56954699065923</v>
+        <v>11.04971878446295</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.101498887125652</v>
+        <v>12.36517120335118</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.064104055082963</v>
+        <v>3.634245536661027</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.466391683612232</v>
+        <v>9.857419477081788</v>
       </c>
       <c r="M20">
-        <v>13.35443391418848</v>
+        <v>15.13642911934964</v>
       </c>
       <c r="N20">
-        <v>11.81583379247135</v>
+        <v>18.12363722866749</v>
       </c>
       <c r="O20">
-        <v>15.91560480922327</v>
+        <v>22.90414937276975</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.40097294026982</v>
+        <v>17.03588582417542</v>
       </c>
       <c r="C21">
-        <v>13.05209824618898</v>
+        <v>11.23157650080587</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.996834177182228</v>
+        <v>12.32117038575414</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.057298113362044</v>
+        <v>3.631916383942183</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.60049878533113</v>
+        <v>9.858323072952819</v>
       </c>
       <c r="M21">
-        <v>14.15562325097146</v>
+        <v>15.26148061613915</v>
       </c>
       <c r="N21">
-        <v>11.61177986647159</v>
+        <v>18.06111600190134</v>
       </c>
       <c r="O21">
-        <v>16.22043256093156</v>
+        <v>22.85154056382082</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.29969711684145</v>
+        <v>17.37291914458892</v>
       </c>
       <c r="C22">
-        <v>13.35873569883924</v>
+        <v>11.34821417238373</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.930989047368953</v>
+        <v>12.29362861728482</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.052913655771493</v>
+        <v>3.63045133879664</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.689754284471294</v>
+        <v>9.86006780035445</v>
       </c>
       <c r="M22">
-        <v>14.65859350142431</v>
+        <v>15.34450415024416</v>
       </c>
       <c r="N22">
-        <v>11.48163548181536</v>
+        <v>18.02190749212456</v>
       </c>
       <c r="O22">
-        <v>16.43768981780305</v>
+        <v>22.82244778541717</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.82352168665195</v>
+        <v>17.19371832540787</v>
       </c>
       <c r="C23">
-        <v>13.19588862906715</v>
+        <v>11.28617220449334</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.965894008087754</v>
+        <v>12.30821718425494</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.055248219501439</v>
+        <v>3.631228044112775</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.641973434726835</v>
+        <v>9.859031317641213</v>
       </c>
       <c r="M23">
-        <v>14.39202421554246</v>
+        <v>15.30008056983164</v>
       </c>
       <c r="N23">
-        <v>11.55079854912501</v>
+        <v>18.04268286994781</v>
       </c>
       <c r="O23">
-        <v>16.32005696436036</v>
+        <v>22.83748990722527</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.94289864825553</v>
+        <v>16.500673551561</v>
       </c>
       <c r="C24">
-        <v>12.56151528219332</v>
+        <v>11.04671055968953</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.103252014260327</v>
+        <v>12.36591093756227</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.064216437497037</v>
+        <v>3.634284574563924</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.464227781501489</v>
+        <v>9.857424261826743</v>
       </c>
       <c r="M24">
-        <v>13.34098712253539</v>
+        <v>15.13440844592823</v>
       </c>
       <c r="N24">
-        <v>11.81922262914162</v>
+        <v>18.12468707099623</v>
       </c>
       <c r="O24">
-        <v>15.91092042548134</v>
+        <v>22.90509826769756</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.74636227116399</v>
+        <v>15.72652462265632</v>
       </c>
       <c r="C25">
-        <v>11.84115907738036</v>
+        <v>10.77961861600232</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.262076284954055</v>
+        <v>12.43338217370105</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.07419342300712</v>
+        <v>3.637828724864514</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.279800310675671</v>
+        <v>9.860675800305781</v>
       </c>
       <c r="M25">
-        <v>12.3272723595577</v>
+        <v>14.96187506209794</v>
       </c>
       <c r="N25">
-        <v>12.12232475616031</v>
+        <v>18.2202670651809</v>
       </c>
       <c r="O25">
-        <v>15.54389217404844</v>
+        <v>23.00060666929713</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_154/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_154/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.13816947372388</v>
+        <v>18.98131855539565</v>
       </c>
       <c r="C2">
-        <v>10.57619841282403</v>
+        <v>11.28167524105549</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.48759964142782</v>
+        <v>7.387907005256951</v>
       </c>
       <c r="F2">
-        <v>16.86991607391233</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.640653167366422</v>
+        <v>2.081832443572039</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.867383632438891</v>
+        <v>6.150699559125477</v>
       </c>
       <c r="M2">
-        <v>14.84076601712459</v>
+        <v>11.60462289104937</v>
       </c>
       <c r="N2">
-        <v>18.29681617104089</v>
+        <v>12.35702782927011</v>
       </c>
       <c r="O2">
-        <v>23.09019337217143</v>
+        <v>15.33346704635534</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.73060681304302</v>
+        <v>17.69139417783176</v>
       </c>
       <c r="C3">
-        <v>10.43455430430983</v>
+        <v>10.88566948195154</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.52719117488554</v>
+        <v>7.47861670991838</v>
       </c>
       <c r="F3">
-        <v>15.89584955866808</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.64270253703804</v>
+        <v>2.087207011037056</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.874631915804647</v>
+        <v>6.067590441384254</v>
       </c>
       <c r="M3">
-        <v>14.76268644959621</v>
+        <v>11.09706396977015</v>
       </c>
       <c r="N3">
-        <v>18.35256908831414</v>
+        <v>12.52325704268912</v>
       </c>
       <c r="O3">
-        <v>23.16283643608086</v>
+        <v>15.22578301044954</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.47698313372717</v>
+        <v>16.85263571144344</v>
       </c>
       <c r="C4">
-        <v>10.34587084369377</v>
+        <v>10.63475877580748</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.55291072002945</v>
+        <v>7.536962118349002</v>
       </c>
       <c r="F4">
-        <v>15.26997757108491</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.644027937752507</v>
+        <v>2.090608980103588</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.880418706905916</v>
+        <v>6.018789406994904</v>
       </c>
       <c r="M4">
-        <v>14.71681313574361</v>
+        <v>10.77764600391893</v>
       </c>
       <c r="N4">
-        <v>18.38872071293296</v>
+        <v>12.62885989756682</v>
       </c>
       <c r="O4">
-        <v>23.21329246586749</v>
+        <v>15.17599788076758</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.37293757822897</v>
+        <v>16.49901046464222</v>
       </c>
       <c r="C5">
-        <v>10.30932489346967</v>
+        <v>10.53065360849695</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.56374700129244</v>
+        <v>7.561400406606489</v>
       </c>
       <c r="F5">
-        <v>15.00819731993403</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.644584970366805</v>
+        <v>2.092021577422568</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.883113408712298</v>
+        <v>5.999472397338529</v>
       </c>
       <c r="M5">
-        <v>14.69865361350314</v>
+        <v>10.64570396226235</v>
       </c>
       <c r="N5">
-        <v>18.40393645153275</v>
+        <v>12.67278410083957</v>
       </c>
       <c r="O5">
-        <v>23.23532066324243</v>
+        <v>15.15967527373648</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.35562388472703</v>
+        <v>16.43957504278088</v>
       </c>
       <c r="C6">
-        <v>10.3032326171877</v>
+        <v>10.51325785740695</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.56556784258816</v>
+        <v>7.565498242873174</v>
       </c>
       <c r="F6">
-        <v>14.96433081551593</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.644678488769679</v>
+        <v>2.092257742446801</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.883581201534748</v>
+        <v>5.99629949259602</v>
       </c>
       <c r="M6">
-        <v>14.69567090722551</v>
+        <v>10.62369347346721</v>
       </c>
       <c r="N6">
-        <v>18.40649225718603</v>
+        <v>12.6801314807681</v>
       </c>
       <c r="O6">
-        <v>23.23906688431452</v>
+        <v>15.1572000884151</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.47558252551432</v>
+        <v>16.84791456769996</v>
       </c>
       <c r="C7">
-        <v>10.34537958673934</v>
+        <v>10.63336216260493</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.55305542206558</v>
+        <v>7.537289026001798</v>
       </c>
       <c r="F7">
-        <v>15.26647399323137</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.644035381505101</v>
+        <v>2.090627923719057</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.880453685343282</v>
+        <v>6.018526572198157</v>
       </c>
       <c r="M7">
-        <v>14.71656604872224</v>
+        <v>10.7758735272975</v>
       </c>
       <c r="N7">
-        <v>18.38892395795228</v>
+        <v>12.62944866892092</v>
       </c>
       <c r="O7">
-        <v>23.21358361273264</v>
+        <v>15.17576188723833</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.99843498003424</v>
+        <v>18.5462099924189</v>
       </c>
       <c r="C8">
-        <v>10.52772943558097</v>
+        <v>11.14679663289792</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.50095857379506</v>
+        <v>7.418631200531078</v>
       </c>
       <c r="F8">
-        <v>16.53996406344768</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.641345899879338</v>
+        <v>2.0836648194638</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.869605812022581</v>
+        <v>6.121587048145127</v>
       </c>
       <c r="M8">
-        <v>14.81342374910923</v>
+        <v>11.43132977337065</v>
       </c>
       <c r="N8">
-        <v>18.31564211620533</v>
+        <v>12.41360962953511</v>
       </c>
       <c r="O8">
-        <v>23.11402311210457</v>
+        <v>15.29286510591999</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.99047237285147</v>
+        <v>21.50900558106531</v>
       </c>
       <c r="C9">
-        <v>10.87069495838726</v>
+        <v>12.08848026535676</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.40995152741264</v>
+        <v>7.207178390700999</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.636601643489184</v>
+        <v>2.070789198574082</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.858912081805055</v>
+        <v>6.340913711612176</v>
       </c>
       <c r="M9">
-        <v>15.01911354457428</v>
+        <v>12.64836950379888</v>
       </c>
       <c r="N9">
-        <v>18.18711481060626</v>
+        <v>12.01842710104018</v>
       </c>
       <c r="O9">
-        <v>22.96543094594642</v>
+        <v>15.65794148892451</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.69106755503867</v>
+        <v>23.46640659978223</v>
       </c>
       <c r="C10">
-        <v>11.11243416168783</v>
+        <v>12.73661296573279</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.34984067645498</v>
+        <v>7.065115630129545</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.633435613230536</v>
+        <v>2.061759974506782</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.8574695212699</v>
+        <v>6.511916631013848</v>
       </c>
       <c r="M10">
-        <v>15.17891990619752</v>
+        <v>13.63327301675231</v>
       </c>
       <c r="N10">
-        <v>18.10187054606856</v>
+        <v>11.74528907524764</v>
       </c>
       <c r="O10">
-        <v>22.88496382297739</v>
+        <v>16.01595100595167</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.00217012951837</v>
+        <v>24.31030423738662</v>
       </c>
       <c r="C11">
-        <v>11.21991933819238</v>
+        <v>13.0213350158237</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.3239506763451</v>
+        <v>7.003468297262132</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.632063971237305</v>
+        <v>2.057735319154977</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.858197148648685</v>
+        <v>6.591713862065548</v>
       </c>
       <c r="M11">
-        <v>15.25329998174002</v>
+        <v>14.10491566994411</v>
       </c>
       <c r="N11">
-        <v>18.06507087012443</v>
+        <v>11.62481577275505</v>
       </c>
       <c r="O11">
-        <v>22.85464159940378</v>
+        <v>16.19963827690674</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.11877395437608</v>
+        <v>24.62326356121097</v>
       </c>
       <c r="C12">
-        <v>11.26024292062588</v>
+        <v>13.12765630186782</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.31435524667529</v>
+        <v>6.98056190707837</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.631554375862884</v>
+        <v>2.056222264576147</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.858670780335855</v>
+        <v>6.62220818271876</v>
       </c>
       <c r="M12">
-        <v>15.28168980073434</v>
+        <v>14.27996948214201</v>
       </c>
       <c r="N12">
-        <v>18.05141924483702</v>
+        <v>11.57974611268513</v>
       </c>
       <c r="O12">
-        <v>22.84406655167632</v>
+        <v>16.27228440836111</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.09371643908727</v>
+        <v>24.55615460185217</v>
       </c>
       <c r="C13">
-        <v>11.25157569415379</v>
+        <v>13.10482525488133</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.31641252878674</v>
+        <v>6.985475549811161</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.631663690566675</v>
+        <v>2.056547654105139</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.858559980146584</v>
+        <v>6.615628552412524</v>
       </c>
       <c r="M13">
-        <v>15.27556589209342</v>
+        <v>14.24242558035763</v>
       </c>
       <c r="N13">
-        <v>18.05434676649131</v>
+        <v>11.58942802073674</v>
       </c>
       <c r="O13">
-        <v>22.84630366586153</v>
+        <v>16.25650005352046</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.01178792477402</v>
+        <v>24.33618349213136</v>
       </c>
       <c r="C14">
-        <v>11.22324449440197</v>
+        <v>13.03011233874711</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.32315707849877</v>
+        <v>7.001574932459409</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.632021850077782</v>
+        <v>2.057610624321492</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.858232149938503</v>
+        <v>6.594217164811525</v>
       </c>
       <c r="M14">
-        <v>15.25563125234554</v>
+        <v>14.11938829435175</v>
       </c>
       <c r="N14">
-        <v>18.06394206358631</v>
+        <v>11.62109677092633</v>
       </c>
       <c r="O14">
-        <v>22.85375337877184</v>
+        <v>16.2055525352926</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.96144443437552</v>
+        <v>24.20058706983614</v>
       </c>
       <c r="C15">
-        <v>11.20584086927829</v>
+        <v>12.98415250076174</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.32731545078266</v>
+        <v>7.011493643040555</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.632242509961854</v>
+        <v>2.058263128087343</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.858057114180678</v>
+        <v>6.5811377868381</v>
       </c>
       <c r="M15">
-        <v>15.24344929132929</v>
+        <v>14.04356374487211</v>
       </c>
       <c r="N15">
-        <v>18.06985636940108</v>
+        <v>11.64056681090594</v>
       </c>
       <c r="O15">
-        <v>22.85843481240178</v>
+        <v>16.17475042479285</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.6705735969925</v>
+        <v>23.41032672676241</v>
       </c>
       <c r="C16">
-        <v>11.10535791356974</v>
+        <v>12.71779834134182</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.35156186704146</v>
+        <v>7.069205165099819</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.63352662948554</v>
+        <v>2.062024584731699</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.857449740531976</v>
+        <v>6.506741060815443</v>
       </c>
       <c r="M16">
-        <v>15.17409130462694</v>
+        <v>13.60195141037183</v>
       </c>
       <c r="N16">
-        <v>18.10431522606614</v>
+        <v>11.75323892401038</v>
       </c>
       <c r="O16">
-        <v>22.88707221418882</v>
+        <v>16.0043738531534</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.49010468203814</v>
+        <v>22.91366871949434</v>
       </c>
       <c r="C17">
-        <v>11.04306318213597</v>
+        <v>12.55177481688679</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.36680839255883</v>
+        <v>7.105378618670791</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.634331930560651</v>
+        <v>2.064352692155306</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.857430958413255</v>
+        <v>6.461606575817576</v>
       </c>
       <c r="M17">
-        <v>15.13196061874101</v>
+        <v>13.32467425453419</v>
       </c>
       <c r="N17">
-        <v>18.1259606972748</v>
+        <v>11.82333213115615</v>
       </c>
       <c r="O17">
-        <v>22.90625234020821</v>
+        <v>15.90525669921712</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.38559420196506</v>
+        <v>22.62361890128562</v>
       </c>
       <c r="C18">
-        <v>11.00700040721842</v>
+        <v>12.4553321642579</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.37571475405049</v>
+        <v>7.126464238041759</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.63480157840313</v>
+        <v>2.065699608009585</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.85755046937536</v>
+        <v>6.435836011968076</v>
       </c>
       <c r="M18">
-        <v>15.10788773146187</v>
+        <v>13.1628408127716</v>
       </c>
       <c r="N18">
-        <v>18.13859686389948</v>
+        <v>11.86400296551893</v>
       </c>
       <c r="O18">
-        <v>22.91787538468753</v>
+        <v>15.85020254912817</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.35009043032512</v>
+        <v>22.52465730100063</v>
       </c>
       <c r="C19">
-        <v>10.99475091467367</v>
+        <v>12.42251654823277</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.37875383815204</v>
+        <v>7.133651208641643</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.634961704099728</v>
+        <v>2.066157025515337</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.857613341465708</v>
+        <v>6.42714347500393</v>
       </c>
       <c r="M19">
-        <v>15.09976502553032</v>
+        <v>13.10764183741611</v>
       </c>
       <c r="N19">
-        <v>18.14290727083264</v>
+        <v>11.87783419914052</v>
       </c>
       <c r="O19">
-        <v>22.92191215373101</v>
+        <v>15.83189502047598</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.50939017529545</v>
+        <v>22.96699206436802</v>
       </c>
       <c r="C20">
-        <v>11.04971878446295</v>
+        <v>12.5695469906593</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.36517120335118</v>
+        <v>7.101498887125716</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.634245536661027</v>
+        <v>2.064104055082829</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.857419477081788</v>
+        <v>6.466391683612232</v>
       </c>
       <c r="M20">
-        <v>15.13642911934964</v>
+        <v>13.35443391418848</v>
       </c>
       <c r="N20">
-        <v>18.12363722866749</v>
+        <v>11.81583379247125</v>
       </c>
       <c r="O20">
-        <v>22.90414937276975</v>
+        <v>15.9156048092232</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.03588582417542</v>
+        <v>24.40097294026981</v>
       </c>
       <c r="C21">
-        <v>11.23157650080587</v>
+        <v>13.05209824618918</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.32117038575414</v>
+        <v>6.996834177182352</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.631916383942183</v>
+        <v>2.057298113362177</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.858323072952819</v>
+        <v>6.600498785331133</v>
       </c>
       <c r="M21">
-        <v>15.26148061613915</v>
+        <v>14.15562325097146</v>
       </c>
       <c r="N21">
-        <v>18.06111600190134</v>
+        <v>11.6117798664716</v>
       </c>
       <c r="O21">
-        <v>22.85154056382082</v>
+        <v>16.22043256093153</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.37291914458892</v>
+        <v>25.29969711684139</v>
       </c>
       <c r="C22">
-        <v>11.34821417238373</v>
+        <v>13.35873569883952</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.29362861728482</v>
+        <v>6.93098904736914</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.63045133879664</v>
+        <v>2.052913655771494</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.86006780035445</v>
+        <v>6.689754284471307</v>
       </c>
       <c r="M22">
-        <v>15.34450415024416</v>
+        <v>14.65859350142427</v>
       </c>
       <c r="N22">
-        <v>18.02190749212456</v>
+        <v>11.48163548181537</v>
       </c>
       <c r="O22">
-        <v>22.82244778541717</v>
+        <v>16.43768981780304</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.19371832540787</v>
+        <v>24.8235216866519</v>
       </c>
       <c r="C23">
-        <v>11.28617220449334</v>
+        <v>13.19588862906722</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.30821718425494</v>
+        <v>6.965894008087946</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.631228044112775</v>
+        <v>2.055248219501574</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.859031317641213</v>
+        <v>6.641973434726882</v>
       </c>
       <c r="M23">
-        <v>15.30008056983164</v>
+        <v>14.3920242155424</v>
       </c>
       <c r="N23">
-        <v>18.04268286994781</v>
+        <v>11.55079854912503</v>
       </c>
       <c r="O23">
-        <v>22.83748990722527</v>
+        <v>16.32005696436044</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.500673551561</v>
+        <v>22.94289864825551</v>
       </c>
       <c r="C24">
-        <v>11.04671055968953</v>
+        <v>12.56151528219359</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.36591093756227</v>
+        <v>7.103252014260396</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.634284574563924</v>
+        <v>2.064216437497172</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.857424261826743</v>
+        <v>6.464227781501449</v>
       </c>
       <c r="M24">
-        <v>15.13440844592823</v>
+        <v>13.34098712253539</v>
       </c>
       <c r="N24">
-        <v>18.12468707099623</v>
+        <v>11.81922262914162</v>
       </c>
       <c r="O24">
-        <v>22.90509826769756</v>
+        <v>15.91092042548133</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.72652462265632</v>
+        <v>20.746362271164</v>
       </c>
       <c r="C25">
-        <v>10.77961861600232</v>
+        <v>11.84115907738036</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.43338217370105</v>
+        <v>7.262076284954117</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.637828724864514</v>
+        <v>2.07419342300712</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.860675800305781</v>
+        <v>6.279800310675688</v>
       </c>
       <c r="M25">
-        <v>14.96187506209794</v>
+        <v>12.32727235955771</v>
       </c>
       <c r="N25">
-        <v>18.2202670651809</v>
+        <v>12.12232475616035</v>
       </c>
       <c r="O25">
-        <v>23.00060666929713</v>
+        <v>15.54389217404846</v>
       </c>
     </row>
   </sheetData>
